--- a/EM_gates/data/em_master_data_final.xlsx
+++ b/EM_gates/data/em_master_data_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9670DE-9AC4-4563-9AB7-866A8242CF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{DCCFD702-1D3C-454B-B557-C47A809226F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13EF4D46-68EF-40B9-942B-86DFB4C7300D}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="2952" windowWidth="11520" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>Policing</t>
+    <t>Law Enforcement</t>
   </si>
   <si>
     <t>Arrest and Court Proceedings Policies</t>
@@ -730,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
